--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC646A-41DD-486C-AEE3-9F421A8F67C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A406C340-94FE-4376-8D77-919D697CD557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="5850" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,53 +52,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문파원+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파원+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파원+15</t>
-  </si>
-  <si>
-    <t>문파원+20</t>
-  </si>
-  <si>
-    <t>문파원+25</t>
-  </si>
-  <si>
-    <t>문파원+35</t>
-  </si>
-  <si>
-    <t>문파원+40</t>
-  </si>
-  <si>
-    <t>문파원+45</t>
-  </si>
-  <si>
-    <t>문파원+50</t>
-  </si>
-  <si>
-    <t>문파원+55</t>
+    <t>guildMemberPlus</t>
+  </si>
+  <si>
+    <t>문파 버프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 인원1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 인원2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 인원3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildBuff</t>
+  </si>
+  <si>
+    <t>guildIcon</t>
   </si>
   <si>
     <t>guildLevelType</t>
-  </si>
-  <si>
-    <t>guildMemberPlus</t>
-  </si>
-  <si>
-    <t>문파원+30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +120,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,17 +177,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,20 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="3" max="4" width="28.125" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -482,197 +546,163 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A406C340-94FE-4376-8D77-919D697CD557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F8977B-74E1-4127-83CA-A77EED3F8A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4575" yWindow="2655" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,42 +55,6 @@
     <t>guildMemberPlus</t>
   </si>
   <si>
-    <t>문파 버프1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 인원1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 버프2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 인원2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 버프3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 인원3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guildBuff</t>
   </si>
   <si>
@@ -98,6 +62,38 @@
   </si>
   <si>
     <t>guildLevelType</t>
+  </si>
+  <si>
+    <t>문파 인원 증가+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 인원 증가 +10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,14 +520,15 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="4" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -556,17 +553,17 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -574,50 +571,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -628,47 +625,47 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
+      <c r="E7" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>14</v>
+      <c r="E8" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -676,33 +673,33 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
-        <v>2</v>
+      <c r="C10" s="1">
+        <v>800</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F8977B-74E1-4127-83CA-A77EED3F8A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99609192-95CA-4124-B7C6-F8DC98465FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2655" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4935" yWindow="7605" windowWidth="26715" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>문파 인원 증가+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 인원 증가 +10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -588,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -605,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>300</v>
@@ -617,88 +613,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
         <v>500</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
         <v>600</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>700</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>800</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E8" s="1">
         <v>14</v>
       </c>
     </row>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99609192-95CA-4124-B7C6-F8DC98465FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4149309-FA84-408B-BB7F-AC39942AD68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="7605" windowWidth="26715" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3855" yWindow="5190" windowWidth="26595" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>문파 버프3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘4단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프4단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,6 +672,40 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>800</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4149309-FA84-408B-BB7F-AC39942AD68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5DD55-782D-4E40-8A4B-B86651A1D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="5190" windowWidth="26595" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,42 +61,74 @@
     <t>guildIcon</t>
   </si>
   <si>
+    <t>문파 인원 증가+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 아이콘4단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 버프4단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>guildLevelType</t>
-  </si>
-  <si>
-    <t>문파 인원 증가+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘2단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘3단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 버프1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 버프2단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 버프3단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 아이콘4단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 버프4단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnPlus</t>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -558,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -575,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -592,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -609,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>300</v>
@@ -626,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>400</v>
@@ -643,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>500</v>
@@ -660,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>600</v>
@@ -677,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>800</v>
@@ -694,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
@@ -704,6 +736,125 @@
       </c>
       <c r="E10">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5DD55-782D-4E40-8A4B-B86651A1D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B3D759-328B-4A41-BC4D-67889C19E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>요괴 추가 소환 +7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -857,6 +861,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B3D759-328B-4A41-BC4D-67889C19E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440237CA-8FE1-4DC5-8FFF-D944C6A5489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3255" yWindow="4515" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>요괴 추가 소환 +8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 추가 소환 +9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,6 +882,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440237CA-8FE1-4DC5-8FFF-D944C6A5489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732DFAA9-7064-440C-903F-CCEBE5046C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="4515" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,37 @@
   </si>
   <si>
     <t>요괴 추가 소환 +9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 출석 추가보상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 출석 추가보상2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 출석 추가보상3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 출석 추가보상4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 출석 추가보상5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 출석 추가보상6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plusReward</t>
+  </si>
+  <si>
+    <t>plusReward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,6 +930,108 @@
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3800</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
